--- a/corr_coefficient/out_data/As_class_line.xlsx
+++ b/corr_coefficient/out_data/As_class_line.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7946,6 +7946,7836 @@
         </is>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>F_Alcohols</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="n">
+        <v>8</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>F_Alcohols</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>2</v>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="n">
+        <v>5</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>F_Alcohols</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>3</v>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="n">
+        <v>8</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>F_Alcohols</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>4</v>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="n">
+        <v>4</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>F_Alcohols</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>5</v>
+      </c>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="n">
+        <v>2</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>F_Alcohols</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>6</v>
+      </c>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="n">
+        <v>2</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>F_Alcohols</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>7</v>
+      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="n">
+        <v>2</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>F_Alcohols</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>R_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>8</v>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>F_Alcohols</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>9</v>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>F_Alcohols</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>10</v>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="n">
+        <v>3</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>F_Alcohols</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>R_Terpene</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>11</v>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="n">
+        <v>2</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>F_Alcohols</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>R_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>12</v>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="n">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>F_Alcohols</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>R_Flavanone</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>13</v>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="n">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>14</v>
+      </c>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="n">
+        <v>17</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>15</v>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="n">
+        <v>15</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>16</v>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="n">
+        <v>12</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>17</v>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>R_Quinones</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>18</v>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="n">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>19</v>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="n">
+        <v>7</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>20</v>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="n">
+        <v>5</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>21</v>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="n">
+        <v>5</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>22</v>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="n">
+        <v>3</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>R_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>23</v>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>24</v>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>10</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>25</v>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>5</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>R_Sterides</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>26</v>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>R_Alcohols</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>27</v>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>1</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>R_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>28</v>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>2</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>R_Terpene</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>29</v>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>1</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>R_Flavonol</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>30</v>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>3</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>R_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>31</v>
+      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>3</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>F_Alkaloids</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>R_Flavonoid</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>32</v>
+      </c>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>2</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>33</v>
+      </c>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>67</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>34</v>
+      </c>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>32</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>35</v>
+      </c>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>35</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>36</v>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="n">
+        <v>8</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>R_Quinones</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>37</v>
+      </c>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="n">
+        <v>2</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>38</v>
+      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="n">
+        <v>13</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>39</v>
+      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="n">
+        <v>2</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>40</v>
+      </c>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="n">
+        <v>9</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>41</v>
+      </c>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="n">
+        <v>10</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>R_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>42</v>
+      </c>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="n">
+        <v>2</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>43</v>
+      </c>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="n">
+        <v>15</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>44</v>
+      </c>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="n">
+        <v>10</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>R_Alcohols</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>45</v>
+      </c>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="n">
+        <v>5</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>R_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>46</v>
+      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="n">
+        <v>1</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>R_Terpene</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>47</v>
+      </c>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="n">
+        <v>4</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>R_Flavonol</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>48</v>
+      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="n">
+        <v>2</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>R_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>49</v>
+      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="n">
+        <v>6</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>R_Flavonoid</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>50</v>
+      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="n">
+        <v>4</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>F_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>R_Flavanone</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>51</v>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="n">
+        <v>1</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>F_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>52</v>
+      </c>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="n">
+        <v>1</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>F_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>53</v>
+      </c>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="n">
+        <v>1</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>F_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>54</v>
+      </c>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="n">
+        <v>4</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>F_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>55</v>
+      </c>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="n">
+        <v>1</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>F_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>56</v>
+      </c>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="n">
+        <v>3</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>F_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>57</v>
+      </c>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="n">
+        <v>1</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>F_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>58</v>
+      </c>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="n">
+        <v>1</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>F_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>59</v>
+      </c>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="n">
+        <v>1</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>F_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>60</v>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="n">
+        <v>1</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>F_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>R_Flavanone</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>61</v>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="n">
+        <v>1</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>62</v>
+      </c>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="n">
+        <v>16</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>63</v>
+      </c>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="n">
+        <v>11</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>64</v>
+      </c>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="n">
+        <v>12</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>65</v>
+      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="n">
+        <v>1</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>66</v>
+      </c>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="n">
+        <v>6</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>67</v>
+      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="n">
+        <v>1</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>68</v>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="n">
+        <v>1</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>69</v>
+      </c>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="n">
+        <v>2</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>70</v>
+      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="n">
+        <v>13</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>71</v>
+      </c>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="n">
+        <v>2</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>R_Sterides</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>72</v>
+      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="n">
+        <v>5</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>R_Terpene</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>73</v>
+      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="n">
+        <v>1</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>R_Flavonol</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>74</v>
+      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="n">
+        <v>1</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>R_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>75</v>
+      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="n">
+        <v>2</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>F_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>R_Flavonoid</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>76</v>
+      </c>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="n">
+        <v>1</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>F_Flavanone</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>77</v>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="n">
+        <v>2</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>F_Flavanone</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>78</v>
+      </c>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="n">
+        <v>2</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>F_Flavanone</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>79</v>
+      </c>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="n">
+        <v>2</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>F_Flavanone</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>80</v>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="n">
+        <v>1</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>F_Flavanone</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>81</v>
+      </c>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="n">
+        <v>1</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>F_Flavanone</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>R_Terpene</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>82</v>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="n">
+        <v>1</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>F_Flavone</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>83</v>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="n">
+        <v>5</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>F_Flavone</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>84</v>
+      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="n">
+        <v>2</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>F_Flavone</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>85</v>
+      </c>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="n">
+        <v>5</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>F_Flavone</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>86</v>
+      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="n">
+        <v>2</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>F_Flavone</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>87</v>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="n">
+        <v>2</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>F_Flavone</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>88</v>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="n">
+        <v>1</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>F_Flavone</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>89</v>
+      </c>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="n">
+        <v>2</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>F_Flavone</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>90</v>
+      </c>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="n">
+        <v>1</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>F_Flavone</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>91</v>
+      </c>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="n">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>F_Flavone</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>92</v>
+      </c>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="n">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>F_Flavone</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>R_Alcohols</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>93</v>
+      </c>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="n">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>F_Flavonoid</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>94</v>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="n">
+        <v>2</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>F_Flavonoid</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>95</v>
+      </c>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="n">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>F_Flavonoid</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>96</v>
+      </c>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="n">
+        <v>1</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>F_Flavonol</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>97</v>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="n">
+        <v>6</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>F_Flavonol</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>98</v>
+      </c>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="n">
+        <v>1</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>F_Flavonol</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>99</v>
+      </c>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="n">
+        <v>5</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>F_Flavonol</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>100</v>
+      </c>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="n">
+        <v>1</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>F_Flavonol</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>101</v>
+      </c>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="n">
+        <v>1</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>F_Flavonol</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>102</v>
+      </c>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="n">
+        <v>1</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>F_Flavonol</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>103</v>
+      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="n">
+        <v>1</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>F_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>104</v>
+      </c>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="n">
+        <v>14</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>F_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>105</v>
+      </c>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="n">
+        <v>7</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>F_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>106</v>
+      </c>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="n">
+        <v>10</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>F_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>107</v>
+      </c>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="n">
+        <v>4</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>F_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>108</v>
+      </c>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="n">
+        <v>2</v>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>F_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>109</v>
+      </c>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="n">
+        <v>3</v>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>F_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>110</v>
+      </c>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="n">
+        <v>4</v>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>F_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>111</v>
+      </c>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="n">
+        <v>2</v>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>F_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>112</v>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="n">
+        <v>6</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>F_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>R_Alcohols</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>113</v>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="n">
+        <v>1</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>F_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>R_Terpene</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>114</v>
+      </c>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="n">
+        <v>2</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>F_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>R_Flavonoid</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>115</v>
+      </c>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="n">
+        <v>2</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>116</v>
+      </c>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="n">
+        <v>43</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>117</v>
+      </c>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="n">
+        <v>15</v>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>118</v>
+      </c>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="n">
+        <v>30</v>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>119</v>
+      </c>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="n">
+        <v>9</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>120</v>
+      </c>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="n">
+        <v>6</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>121</v>
+      </c>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" t="n">
+        <v>7</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>122</v>
+      </c>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" t="n">
+        <v>11</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>123</v>
+      </c>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" t="n">
+        <v>7</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>R_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>124</v>
+      </c>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr"/>
+      <c r="G374" t="n">
+        <v>2</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>125</v>
+      </c>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" t="n">
+        <v>21</v>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>126</v>
+      </c>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="n">
+        <v>15</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>R_Polyphenol</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>127</v>
+      </c>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" t="n">
+        <v>1</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>R_Sterides</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>128</v>
+      </c>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="n">
+        <v>1</v>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>R_Alcohols</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>129</v>
+      </c>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="n">
+        <v>1</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>R_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>130</v>
+      </c>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="n">
+        <v>2</v>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>R_Terpene</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>131</v>
+      </c>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" t="n">
+        <v>2</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>R_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>132</v>
+      </c>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="n">
+        <v>8</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>F_Lipids</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>R_Flavonoid</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>133</v>
+      </c>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" t="n">
+        <v>3</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>134</v>
+      </c>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" t="n">
+        <v>49</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>135</v>
+      </c>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="n">
+        <v>32</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>136</v>
+      </c>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="n">
+        <v>27</v>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>137</v>
+      </c>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="n">
+        <v>4</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>R_Quinones</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>138</v>
+      </c>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr"/>
+      <c r="G388" t="n">
+        <v>1</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>139</v>
+      </c>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="n">
+        <v>16</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>140</v>
+      </c>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr"/>
+      <c r="G390" t="n">
+        <v>1</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>141</v>
+      </c>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="n">
+        <v>10</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>142</v>
+      </c>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="n">
+        <v>12</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>R_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>143</v>
+      </c>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="n">
+        <v>2</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>144</v>
+      </c>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="n">
+        <v>7</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>145</v>
+      </c>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="n">
+        <v>5</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>R_Sterides</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>146</v>
+      </c>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="n">
+        <v>1</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>R_Alcohols</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>147</v>
+      </c>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="n">
+        <v>3</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>R_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>148</v>
+      </c>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="n">
+        <v>4</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>R_Terpene</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>149</v>
+      </c>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="n">
+        <v>2</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>R_Flavonol</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>150</v>
+      </c>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="n">
+        <v>4</v>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>R_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>151</v>
+      </c>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="n">
+        <v>2</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>R_Flavonoid</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>152</v>
+      </c>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="n">
+        <v>1</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>F_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>R_Flavanone</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>153</v>
+      </c>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="n">
+        <v>1</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>154</v>
+      </c>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="n">
+        <v>69</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>155</v>
+      </c>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" t="n">
+        <v>47</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>156</v>
+      </c>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" t="n">
+        <v>89</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>157</v>
+      </c>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="n">
+        <v>17</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>158</v>
+      </c>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="n">
+        <v>24</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>159</v>
+      </c>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="n">
+        <v>5</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>160</v>
+      </c>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="n">
+        <v>28</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>161</v>
+      </c>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="n">
+        <v>14</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>R_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>162</v>
+      </c>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="n">
+        <v>1</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>163</v>
+      </c>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="n">
+        <v>54</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>164</v>
+      </c>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="n">
+        <v>39</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>R_Sterides</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>165</v>
+      </c>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr"/>
+      <c r="G415" t="n">
+        <v>5</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>R_Alcohols</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>166</v>
+      </c>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="n">
+        <v>18</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>R_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>167</v>
+      </c>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="n">
+        <v>4</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>R_Terpene</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>168</v>
+      </c>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="n">
+        <v>8</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>R_Flavonol</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>169</v>
+      </c>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr"/>
+      <c r="G419" t="n">
+        <v>3</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>R_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>170</v>
+      </c>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" t="n">
+        <v>4</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>F_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>R_Flavonoid</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>171</v>
+      </c>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="n">
+        <v>2</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>172</v>
+      </c>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="n">
+        <v>19</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>173</v>
+      </c>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" t="n">
+        <v>7</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>174</v>
+      </c>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr"/>
+      <c r="G424" t="n">
+        <v>12</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>175</v>
+      </c>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr"/>
+      <c r="G425" t="n">
+        <v>4</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>176</v>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="n">
+        <v>10</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>177</v>
+      </c>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="n">
+        <v>4</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>178</v>
+      </c>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" t="n">
+        <v>2</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>R_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>179</v>
+      </c>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="n">
+        <v>2</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>180</v>
+      </c>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr"/>
+      <c r="G430" t="n">
+        <v>4</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>181</v>
+      </c>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="n">
+        <v>3</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>R_Sterides</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>182</v>
+      </c>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr"/>
+      <c r="G432" t="n">
+        <v>1</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>R_Alcohols</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>183</v>
+      </c>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr"/>
+      <c r="G433" t="n">
+        <v>1</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>R_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>184</v>
+      </c>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="n">
+        <v>2</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>R_Terpene</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>185</v>
+      </c>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="n">
+        <v>1</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>R_Flavonol</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>186</v>
+      </c>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="n">
+        <v>1</v>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>F_Others</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>R_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>187</v>
+      </c>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="n">
+        <v>2</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>188</v>
+      </c>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="n">
+        <v>4</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>189</v>
+      </c>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="n">
+        <v>7</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>190</v>
+      </c>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="n">
+        <v>8</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>191</v>
+      </c>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="n">
+        <v>3</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>192</v>
+      </c>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="n">
+        <v>2</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>193</v>
+      </c>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="n">
+        <v>1</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>194</v>
+      </c>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="n">
+        <v>5</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>195</v>
+      </c>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="n">
+        <v>3</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>196</v>
+      </c>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr"/>
+      <c r="G446" t="n">
+        <v>5</v>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>197</v>
+      </c>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr"/>
+      <c r="G447" t="n">
+        <v>3</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>R_Sterides</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>198</v>
+      </c>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="n">
+        <v>1</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>R_Alcohols</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>199</v>
+      </c>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="n">
+        <v>1</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>R_Terpene</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>200</v>
+      </c>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr"/>
+      <c r="G450" t="n">
+        <v>1</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>F_Phenolamides</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>R_Flavonol</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>201</v>
+      </c>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="n">
+        <v>1</v>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>202</v>
+      </c>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr"/>
+      <c r="G452" t="n">
+        <v>32</v>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>203</v>
+      </c>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr"/>
+      <c r="G453" t="n">
+        <v>13</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>204</v>
+      </c>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="n">
+        <v>11</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>205</v>
+      </c>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr"/>
+      <c r="G455" t="n">
+        <v>9</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>206</v>
+      </c>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr"/>
+      <c r="G456" t="n">
+        <v>9</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>207</v>
+      </c>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr"/>
+      <c r="G457" t="n">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>208</v>
+      </c>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="n">
+        <v>6</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>209</v>
+      </c>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="n">
+        <v>5</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>R_Indole derivatives</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>210</v>
+      </c>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr"/>
+      <c r="G460" t="n">
+        <v>4</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>211</v>
+      </c>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="n">
+        <v>9</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>212</v>
+      </c>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="n">
+        <v>4</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>R_Polyphenol</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>213</v>
+      </c>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="n">
+        <v>3</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>R_Alcohols</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>214</v>
+      </c>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr"/>
+      <c r="G464" t="n">
+        <v>2</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>R_Anthocyanins</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>215</v>
+      </c>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
+      <c r="G465" t="n">
+        <v>1</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>R_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>216</v>
+      </c>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="n">
+        <v>3</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>F_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>R_Flavonoid</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>217</v>
+      </c>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="n">
+        <v>1</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>F_Polyphenol</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>218</v>
+      </c>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="n">
+        <v>1</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>F_Polyphenol</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>219</v>
+      </c>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="n">
+        <v>1</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>F_Polyphenol</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>220</v>
+      </c>
+      <c r="E470" t="inlineStr"/>
+      <c r="F470" t="inlineStr"/>
+      <c r="G470" t="n">
+        <v>1</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>F_Quinones</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>221</v>
+      </c>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="n">
+        <v>2</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>F_Quinones</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>222</v>
+      </c>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="n">
+        <v>5</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>F_Quinones</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>223</v>
+      </c>
+      <c r="E473" t="inlineStr"/>
+      <c r="F473" t="inlineStr"/>
+      <c r="G473" t="n">
+        <v>8</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>F_Quinones</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>224</v>
+      </c>
+      <c r="E474" t="inlineStr"/>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="n">
+        <v>1</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>F_Quinones</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>225</v>
+      </c>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="n">
+        <v>1</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>F_Quinones</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>226</v>
+      </c>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="inlineStr"/>
+      <c r="G476" t="n">
+        <v>2</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>F_Quinones</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>227</v>
+      </c>
+      <c r="E477" t="inlineStr"/>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="n">
+        <v>1</v>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>F_Quinones</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>228</v>
+      </c>
+      <c r="E478" t="inlineStr"/>
+      <c r="F478" t="inlineStr"/>
+      <c r="G478" t="n">
+        <v>5</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>F_Quinones</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>229</v>
+      </c>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" t="inlineStr"/>
+      <c r="G479" t="n">
+        <v>1</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>F_Quinones</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>R_Sterides</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>230</v>
+      </c>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr"/>
+      <c r="G480" t="n">
+        <v>1</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>F_Quinones</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>R_Alcohols</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>231</v>
+      </c>
+      <c r="E481" t="inlineStr"/>
+      <c r="F481" t="inlineStr"/>
+      <c r="G481" t="n">
+        <v>2</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>F_Quinones</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>R_Flavonol</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>232</v>
+      </c>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="inlineStr"/>
+      <c r="G482" t="n">
+        <v>1</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>F_Sterides</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>233</v>
+      </c>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="n">
+        <v>3</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>F_Sterides</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>234</v>
+      </c>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
+      <c r="G484" t="n">
+        <v>1</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>F_Sterides</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>235</v>
+      </c>
+      <c r="E485" t="inlineStr"/>
+      <c r="F485" t="inlineStr"/>
+      <c r="G485" t="n">
+        <v>1</v>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>F_Sterides</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>236</v>
+      </c>
+      <c r="E486" t="inlineStr"/>
+      <c r="F486" t="inlineStr"/>
+      <c r="G486" t="n">
+        <v>1</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>F_Sterides</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>237</v>
+      </c>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="n">
+        <v>1</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>F_Sterides</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>238</v>
+      </c>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="n">
+        <v>1</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>F_Terpene</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>239</v>
+      </c>
+      <c r="E489" t="inlineStr"/>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="n">
+        <v>6</v>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>F_Terpene</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>240</v>
+      </c>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="n">
+        <v>5</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>F_Terpene</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>241</v>
+      </c>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="n">
+        <v>10</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>F_Terpene</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>242</v>
+      </c>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="n">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>F_Terpene</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>243</v>
+      </c>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="n">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>F_Terpene</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>R_Flavone</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>244</v>
+      </c>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="n">
+        <v>2</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>F_Terpene</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>245</v>
+      </c>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="n">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>F_Terpene</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>246</v>
+      </c>
+      <c r="E496" t="inlineStr"/>
+      <c r="F496" t="inlineStr"/>
+      <c r="G496" t="n">
+        <v>6</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>F_Terpene</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>247</v>
+      </c>
+      <c r="E497" t="inlineStr"/>
+      <c r="F497" t="inlineStr"/>
+      <c r="G497" t="n">
+        <v>1</v>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>F_Terpene</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>R_Terpene</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>248</v>
+      </c>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr"/>
+      <c r="G498" t="n">
+        <v>1</v>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>F_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>R_Amino acid and derivatives</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>249</v>
+      </c>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="inlineStr"/>
+      <c r="G499" t="n">
+        <v>12</v>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>F_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>R_Nucleotide and derivates</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>250</v>
+      </c>
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" t="inlineStr"/>
+      <c r="G500" t="n">
+        <v>9</v>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>F_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>R_Organic acids and derivatives</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>251</v>
+      </c>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="n">
+        <v>12</v>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>F_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>R_Phenolamides</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>252</v>
+      </c>
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="inlineStr"/>
+      <c r="G502" t="n">
+        <v>2</v>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>F_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>R_Quinones</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>253</v>
+      </c>
+      <c r="E503" t="inlineStr"/>
+      <c r="F503" t="inlineStr"/>
+      <c r="G503" t="n">
+        <v>1</v>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>F_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>R_Alkaloids</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>254</v>
+      </c>
+      <c r="E504" t="inlineStr"/>
+      <c r="F504" t="inlineStr"/>
+      <c r="G504" t="n">
+        <v>4</v>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>F_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>R_Phenylpropanoids</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>255</v>
+      </c>
+      <c r="E505" t="inlineStr"/>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="n">
+        <v>4</v>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>F_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>R_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>256</v>
+      </c>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr"/>
+      <c r="G506" t="n">
+        <v>2</v>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>F_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>R_Lipids</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>257</v>
+      </c>
+      <c r="E507" t="inlineStr"/>
+      <c r="F507" t="inlineStr"/>
+      <c r="G507" t="n">
+        <v>32</v>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>F_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>R_Others</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>258</v>
+      </c>
+      <c r="E508" t="inlineStr"/>
+      <c r="F508" t="inlineStr"/>
+      <c r="G508" t="n">
+        <v>2</v>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>F_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>R_Terpene</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>259</v>
+      </c>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" t="inlineStr"/>
+      <c r="G509" t="n">
+        <v>3</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>F_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>R_Flavonol</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>260</v>
+      </c>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="n">
+        <v>1</v>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>F_Vitamins and derivatives</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>R_Carbohydrates</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Undirected</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>261</v>
+      </c>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="n">
+        <v>2</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
